--- a/Analysis/Comp_comb_lscape.xlsx
+++ b/Analysis/Comp_comb_lscape.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -8234,7 +8234,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -8898,7 +8898,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Deer, elk</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -9313,7 +9313,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -9645,7 +9645,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -10392,7 +10392,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Rabbits</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -11056,7 +11056,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Voles</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -12135,7 +12135,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12882,7 +12882,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -13709,7 +13709,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -13789,7 +13789,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -13949,7 +13949,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -14269,7 +14269,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -14429,7 +14429,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -14512,7 +14512,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -14761,7 +14761,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -14844,7 +14844,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -14927,7 +14927,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -15010,7 +15010,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -15093,7 +15093,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -15176,7 +15176,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -15425,7 +15425,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -15840,7 +15840,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -16006,7 +16006,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Reindeer</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -16089,7 +16089,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -16172,7 +16172,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -16421,7 +16421,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -16587,7 +16587,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -16670,7 +16670,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -16753,7 +16753,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -17002,7 +17002,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -17085,7 +17085,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -17251,7 +17251,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -17334,7 +17334,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -17417,7 +17417,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -17500,7 +17500,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -17666,7 +17666,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -17749,7 +17749,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -17915,7 +17915,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -17998,7 +17998,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -18081,7 +18081,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -18247,7 +18247,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -18330,7 +18330,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -18413,7 +18413,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -18496,7 +18496,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -18745,7 +18745,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -18828,7 +18828,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -18994,7 +18994,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -19077,7 +19077,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -19160,7 +19160,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -19243,7 +19243,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -19326,7 +19326,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -20820,7 +20820,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -21069,7 +21069,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -21235,7 +21235,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -21318,7 +21318,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -21401,7 +21401,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -21484,7 +21484,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -21567,7 +21567,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -21650,7 +21650,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -21733,7 +21733,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -21816,7 +21816,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -21982,7 +21982,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -22065,7 +22065,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -22148,7 +22148,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -22314,7 +22314,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -22397,7 +22397,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -22480,7 +22480,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -22812,7 +22812,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -22978,7 +22978,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -23061,7 +23061,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -23227,7 +23227,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Ungulates, hares, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -23310,7 +23310,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Ungulates, hares, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -23393,7 +23393,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Ungulates, hares, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -23476,7 +23476,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Ungulates, hares, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -23559,7 +23559,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Ungulates, hares, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -24721,7 +24721,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Wallaby</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -24804,7 +24804,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Wallaby</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -24887,7 +24887,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Kangaroo, wallaby</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -24970,7 +24970,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Kangaroo, wallaby</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -25373,7 +25373,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -25443,7 +25443,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -25453,7 +25453,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -25523,7 +25523,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Genetic resistance</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -25606,7 +25606,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Genetic resistance</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -25699,7 +25699,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -25782,7 +25782,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -25865,7 +25865,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -25948,7 +25948,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -26031,7 +26031,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -26114,7 +26114,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -26197,7 +26197,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -26280,7 +26280,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -26363,7 +26363,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -26446,7 +26446,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -26529,7 +26529,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -26612,7 +26612,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -26768,7 +26768,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -26851,7 +26851,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -26934,7 +26934,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -27017,7 +27017,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -27100,7 +27100,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -27183,7 +27183,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -27266,7 +27266,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -27349,7 +27349,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -27432,7 +27432,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -27515,7 +27515,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -27598,7 +27598,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -27681,7 +27681,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -27764,7 +27764,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -27847,7 +27847,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -27930,7 +27930,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -28013,7 +28013,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -28096,7 +28096,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -28179,7 +28179,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -28345,7 +28345,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -28511,7 +28511,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -28594,7 +28594,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -28677,7 +28677,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -28687,7 +28687,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -28760,7 +28760,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -28770,7 +28770,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -28843,7 +28843,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -28853,7 +28853,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -28926,7 +28926,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -28936,7 +28936,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -29351,7 +29351,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -29434,7 +29434,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -29600,7 +29600,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -29683,7 +29683,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -29766,7 +29766,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -32827,7 +32827,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -32837,7 +32837,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -32883,19 +32883,19 @@
         <v>36</v>
       </c>
       <c r="O392">
-        <v>0.1263227513227513</v>
+        <v>-1.933870876475696</v>
       </c>
       <c r="P392">
-        <v>0.1840602643212011</v>
+        <v>1.133315353740087</v>
       </c>
       <c r="Q392">
         <v>36</v>
       </c>
       <c r="R392">
-        <v>0.205489417989418</v>
+        <v>-1.352331766328328</v>
       </c>
       <c r="S392">
-        <v>0.255095667594866</v>
+        <v>1.166518182138639</v>
       </c>
       <c r="T392" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -32937,7 +32937,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -32983,19 +32983,19 @@
         <v>27</v>
       </c>
       <c r="O393">
-        <v>0.04497354497354497</v>
+        <v>-3.055664614276665</v>
       </c>
       <c r="P393">
-        <v>0.05086609607800537</v>
+        <v>1.029348057567967</v>
       </c>
       <c r="Q393">
         <v>36</v>
       </c>
       <c r="R393">
-        <v>0.09285714285714286</v>
+        <v>-2.279237728997054</v>
       </c>
       <c r="S393">
-        <v>0.1227980662688345</v>
+        <v>1.082169397379471</v>
       </c>
       <c r="T393" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Wild boar, sheep, goat</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -33083,19 +33083,19 @@
         <v>8</v>
       </c>
       <c r="O394">
-        <v>6.9</v>
+        <v>-2.602152772679807</v>
       </c>
       <c r="P394">
-        <v>1.697056274847714</v>
+        <v>0.6292349965445883</v>
       </c>
       <c r="Q394">
         <v>8</v>
       </c>
       <c r="R394">
-        <v>9.300000000000001</v>
+        <v>-2.27754295696188</v>
       </c>
       <c r="S394">
-        <v>1.414213562373095</v>
+        <v>0.4509506501889391</v>
       </c>
       <c r="T394" t="inlineStr">
         <is>
@@ -33137,7 +33137,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Rabbits</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -33183,19 +33183,19 @@
         <v>3</v>
       </c>
       <c r="O395">
-        <v>13.2</v>
+        <v>-1.883389792073979</v>
       </c>
       <c r="P395">
-        <v>8.833459118601272</v>
+        <v>2.430142238102925</v>
       </c>
       <c r="Q395">
         <v>3</v>
       </c>
       <c r="R395">
-        <v>27.7</v>
+        <v>-0.9593917159714264</v>
       </c>
       <c r="S395">
-        <v>12.29756073373903</v>
+        <v>2.336292318617421</v>
       </c>
       <c r="T395" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -33283,19 +33283,19 @@
         <v>18</v>
       </c>
       <c r="O396">
-        <v>76.43678160919541</v>
+        <v>1.176777061517446</v>
       </c>
       <c r="P396">
-        <v>99.97026906430496</v>
+        <v>11.43455796365184</v>
       </c>
       <c r="Q396">
         <v>18</v>
       </c>
       <c r="R396">
-        <v>36.78160919540231</v>
+        <v>-0.5415972824327439</v>
       </c>
       <c r="S396">
-        <v>131.668159255426</v>
+        <v>21.71026179458997</v>
       </c>
       <c r="T396" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -33383,19 +33383,19 @@
         <v>18</v>
       </c>
       <c r="O397">
-        <v>53.14285714285714</v>
+        <v>0.1258802458890025</v>
       </c>
       <c r="P397">
-        <v>109.0964748116389</v>
+        <v>14.96538604339873</v>
       </c>
       <c r="Q397">
         <v>18</v>
       </c>
       <c r="R397">
-        <v>30.28571428571427</v>
+        <v>-0.8337291311811355</v>
       </c>
       <c r="S397">
-        <v>101.8233764908629</v>
+        <v>18.50239258058098</v>
       </c>
       <c r="T397" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -33483,19 +33483,19 @@
         <v>18</v>
       </c>
       <c r="O398">
-        <v>76.43678160919541</v>
+        <v>1.176777061517446</v>
       </c>
       <c r="P398">
-        <v>99.97026906430496</v>
+        <v>11.43455796365184</v>
       </c>
       <c r="Q398">
         <v>18</v>
       </c>
       <c r="R398">
-        <v>52.8735632183908</v>
+        <v>0.1150693297847869</v>
       </c>
       <c r="S398">
-        <v>85.34047359147985</v>
+        <v>11.73640789827518</v>
       </c>
       <c r="T398" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -33583,19 +33583,19 @@
         <v>18</v>
       </c>
       <c r="O399">
-        <v>53.14285714285714</v>
+        <v>0.1258802458890025</v>
       </c>
       <c r="P399">
-        <v>109.0964748116389</v>
+        <v>14.96538604339873</v>
       </c>
       <c r="Q399">
         <v>18</v>
       </c>
       <c r="R399">
-        <v>36.57142857142857</v>
+        <v>-0.5506471179526623</v>
       </c>
       <c r="S399">
-        <v>75.15534931468449</v>
+        <v>12.42761764504042</v>
       </c>
       <c r="T399" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -33683,19 +33683,19 @@
         <v>18</v>
       </c>
       <c r="O400">
-        <v>89.65517241379308</v>
+        <v>2.15948424935337</v>
       </c>
       <c r="P400">
-        <v>41.45108717300462</v>
+        <v>4.377708511271449</v>
       </c>
       <c r="Q400">
         <v>18</v>
       </c>
       <c r="R400">
-        <v>29.88505747126437</v>
+        <v>-0.852777326151829</v>
       </c>
       <c r="S400">
-        <v>70.7106781186548</v>
+        <v>12.93470414729537</v>
       </c>
       <c r="T400" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -33783,19 +33783,19 @@
         <v>18</v>
       </c>
       <c r="O401">
-        <v>69.71428571428572</v>
+        <v>0.8337291311811349</v>
       </c>
       <c r="P401">
-        <v>65.45788488698329</v>
+        <v>7.839716354155398</v>
       </c>
       <c r="Q401">
         <v>18</v>
       </c>
       <c r="R401">
-        <v>19.42857142857142</v>
+        <v>-1.422399365762008</v>
       </c>
       <c r="S401">
-        <v>63.03351878005795</v>
+        <v>14.30040368039316</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -33883,19 +33883,19 @@
         <v>18</v>
       </c>
       <c r="O402">
-        <v>73.71428571428569</v>
+        <v>1.031171007872576</v>
       </c>
       <c r="P402">
-        <v>46.06295603158082</v>
+        <v>5.365060026584997</v>
       </c>
       <c r="Q402">
         <v>18</v>
       </c>
       <c r="R402">
-        <v>50.28571428571429</v>
+        <v>0.01142869582362285</v>
       </c>
       <c r="S402">
-        <v>60.60915267313253</v>
+        <v>8.547020090536391</v>
       </c>
       <c r="T402" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -33983,19 +33983,19 @@
         <v>18</v>
       </c>
       <c r="O403">
-        <v>73.71428571428569</v>
+        <v>1.031171007872576</v>
       </c>
       <c r="P403">
-        <v>46.06295603158082</v>
+        <v>5.365060026584997</v>
       </c>
       <c r="Q403">
         <v>18</v>
       </c>
       <c r="R403">
-        <v>63.42857142857143</v>
+        <v>0.5506471179526625</v>
       </c>
       <c r="S403">
-        <v>55.76042045928206</v>
+        <v>7.001361038979333</v>
       </c>
       <c r="T403" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -34083,19 +34083,19 @@
         <v>18</v>
       </c>
       <c r="O404">
-        <v>93.71428571428572</v>
+        <v>2.70197115502583</v>
       </c>
       <c r="P404">
-        <v>26.66802717617833</v>
+        <v>2.754766105631154</v>
       </c>
       <c r="Q404">
         <v>18</v>
       </c>
       <c r="R404">
-        <v>79.42857142857142</v>
+        <v>1.350954994674581</v>
       </c>
       <c r="S404">
-        <v>48.48732213850616</v>
+        <v>5.440498071794529</v>
       </c>
       <c r="T404" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -34183,19 +34183,19 @@
         <v>18</v>
       </c>
       <c r="O405">
-        <v>69.71428571428572</v>
+        <v>0.8337291311811349</v>
       </c>
       <c r="P405">
-        <v>65.45788488698329</v>
+        <v>7.839716354155398</v>
       </c>
       <c r="Q405">
         <v>18</v>
       </c>
       <c r="R405">
-        <v>47.42857142857144</v>
+        <v>-0.102947969252442</v>
       </c>
       <c r="S405">
-        <v>48.48732213850607</v>
+        <v>7.040544201554251</v>
       </c>
       <c r="T405" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -34283,19 +34283,19 @@
         <v>18</v>
       </c>
       <c r="O406">
-        <v>93.71428571428572</v>
+        <v>2.70197115502583</v>
       </c>
       <c r="P406">
-        <v>26.66802717617833</v>
+        <v>2.754766105631154</v>
       </c>
       <c r="Q406">
         <v>18</v>
       </c>
       <c r="R406">
-        <v>79.42857142857142</v>
+        <v>1.350954994674581</v>
       </c>
       <c r="S406">
-        <v>46.06295603158082</v>
+        <v>5.16847167290678</v>
       </c>
       <c r="T406" t="inlineStr">
         <is>
@@ -34337,7 +34337,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -34383,19 +34383,19 @@
         <v>18</v>
       </c>
       <c r="O407">
-        <v>77.01149425287356</v>
+        <v>1.208960345836975</v>
       </c>
       <c r="P407">
-        <v>51.20428415488788</v>
+        <v>5.834819804145122</v>
       </c>
       <c r="Q407">
         <v>18</v>
       </c>
       <c r="R407">
-        <v>13.21839080459771</v>
+        <v>-1.881785620885774</v>
       </c>
       <c r="S407">
-        <v>36.57448868206279</v>
+        <v>10.05950516199866</v>
       </c>
       <c r="T407" t="inlineStr">
         <is>
@@ -34437,7 +34437,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -34483,19 +34483,19 @@
         <v>18</v>
       </c>
       <c r="O408">
-        <v>89.65517241379308</v>
+        <v>2.15948424935337</v>
       </c>
       <c r="P408">
-        <v>41.45108717300462</v>
+        <v>4.377708511271449</v>
       </c>
       <c r="Q408">
         <v>18</v>
       </c>
       <c r="R408">
-        <v>16.66666666666669</v>
+        <v>-1.609437912434099</v>
       </c>
       <c r="S408">
-        <v>29.2595909456502</v>
+        <v>7.166854730743597</v>
       </c>
       <c r="T408" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -34583,19 +34583,19 @@
         <v>18</v>
       </c>
       <c r="O409">
-        <v>10.28571428571427</v>
+        <v>-2.165874047452145</v>
       </c>
       <c r="P409">
-        <v>24.24366106925303</v>
+        <v>7.558658266285048</v>
       </c>
       <c r="Q409">
         <v>18</v>
       </c>
       <c r="R409">
-        <v>6.285714285714267</v>
+        <v>-2.701971155025831</v>
       </c>
       <c r="S409">
-        <v>26.66802717617839</v>
+        <v>10.63564243472126</v>
       </c>
       <c r="T409" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -34683,19 +34683,19 @@
         <v>18</v>
       </c>
       <c r="O410">
-        <v>77.01149425287356</v>
+        <v>1.208960345836975</v>
       </c>
       <c r="P410">
-        <v>51.20428415488788</v>
+        <v>5.834819804145122</v>
       </c>
       <c r="Q410">
         <v>18</v>
       </c>
       <c r="R410">
-        <v>29.31034482758621</v>
+        <v>-0.8803587226480917</v>
       </c>
       <c r="S410">
-        <v>24.38299245470858</v>
+        <v>4.503644112147544</v>
       </c>
       <c r="T410" t="inlineStr">
         <is>
@@ -34737,7 +34737,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -34783,19 +34783,19 @@
         <v>18</v>
       </c>
       <c r="O411">
-        <v>6.85714285714284</v>
+        <v>-2.608843551018765</v>
       </c>
       <c r="P411">
-        <v>14.54619664155181</v>
+        <v>5.552964376539855</v>
       </c>
       <c r="Q411">
         <v>18</v>
       </c>
       <c r="R411">
-        <v>10.28571428571426</v>
+        <v>-2.165874047452146</v>
       </c>
       <c r="S411">
-        <v>21.81929496232779</v>
+        <v>6.802659180742247</v>
       </c>
       <c r="T411" t="inlineStr">
         <is>
@@ -34837,7 +34837,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -34883,19 +34883,19 @@
         <v>18</v>
       </c>
       <c r="O412">
-        <v>77.14285714285714</v>
+        <v>1.216395324324493</v>
       </c>
       <c r="P412">
-        <v>58.18478656620736</v>
+        <v>6.624616684689303</v>
       </c>
       <c r="Q412">
         <v>18</v>
       </c>
       <c r="R412">
-        <v>30.28571428571427</v>
+        <v>-0.8337291311811355</v>
       </c>
       <c r="S412">
-        <v>21.81929496232775</v>
+        <v>3.964667087447991</v>
       </c>
       <c r="T412" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -34983,19 +34983,19 @@
         <v>18</v>
       </c>
       <c r="O413">
-        <v>17.14285714285714</v>
+        <v>-1.575536360758419</v>
       </c>
       <c r="P413">
-        <v>36.36549160387951</v>
+        <v>8.782906281331227</v>
       </c>
       <c r="Q413">
         <v>18</v>
       </c>
       <c r="R413">
-        <v>6.85714285714284</v>
+        <v>-2.608843551018765</v>
       </c>
       <c r="S413">
-        <v>16.97056274847717</v>
+        <v>6.479064014962197</v>
       </c>
       <c r="T413" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Moose, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -35083,19 +35083,19 @@
         <v>18</v>
       </c>
       <c r="O414">
-        <v>10.28571428571427</v>
+        <v>-2.165874047452145</v>
       </c>
       <c r="P414">
-        <v>24.24366106925303</v>
+        <v>7.558658266285048</v>
       </c>
       <c r="Q414">
         <v>18</v>
       </c>
       <c r="R414">
-        <v>2.857142857142836</v>
+        <v>-3.526360524616169</v>
       </c>
       <c r="S414">
-        <v>16.97056274847717</v>
+        <v>10.03296560645953</v>
       </c>
       <c r="T414" t="inlineStr">
         <is>
@@ -35137,7 +35137,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -35183,19 +35183,19 @@
         <v>18</v>
       </c>
       <c r="O415">
-        <v>77.14285714285714</v>
+        <v>1.216395324324493</v>
       </c>
       <c r="P415">
-        <v>58.18478656620736</v>
+        <v>6.624616684689303</v>
       </c>
       <c r="Q415">
         <v>18</v>
       </c>
       <c r="R415">
-        <v>16.57142857142857</v>
+        <v>-1.616310791721862</v>
       </c>
       <c r="S415">
-        <v>14.54619664155181</v>
+        <v>3.572788560664292</v>
       </c>
       <c r="T415" t="inlineStr">
         <is>
@@ -35237,7 +35237,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -35283,19 +35283,19 @@
         <v>18</v>
       </c>
       <c r="O416">
-        <v>6.85714285714284</v>
+        <v>-2.608843551018765</v>
       </c>
       <c r="P416">
-        <v>14.54619664155181</v>
+        <v>5.552964376539855</v>
       </c>
       <c r="Q416">
         <v>18</v>
       </c>
       <c r="R416">
-        <v>3.428571428571409</v>
+        <v>-3.338139245695024</v>
       </c>
       <c r="S416">
-        <v>12.12183053462657</v>
+        <v>6.539431453116447</v>
       </c>
       <c r="T416" t="inlineStr">
         <is>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -35383,19 +35383,19 @@
         <v>32</v>
       </c>
       <c r="O417">
-        <v>5.87</v>
+        <v>-2.774822171719124</v>
       </c>
       <c r="P417">
-        <v>6.77</v>
+        <v>2.788924627486738</v>
       </c>
       <c r="Q417">
         <v>33</v>
       </c>
       <c r="R417">
-        <v>3.22</v>
+        <v>-3.403059001808856</v>
       </c>
       <c r="S417">
-        <v>3.54</v>
+        <v>1.94552291925155</v>
       </c>
       <c r="T417" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -35483,19 +35483,19 @@
         <v>33</v>
       </c>
       <c r="O418">
-        <v>5.31</v>
+        <v>-2.881016562741561</v>
       </c>
       <c r="P418">
-        <v>6.08</v>
+        <v>2.63151805473998</v>
       </c>
       <c r="Q418">
         <v>33</v>
       </c>
       <c r="R418">
-        <v>3.41</v>
+        <v>-3.343762924895779</v>
       </c>
       <c r="S418">
-        <v>4.38</v>
+        <v>2.351985025208472</v>
       </c>
       <c r="T418" t="inlineStr">
         <is>
@@ -35537,7 +35537,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -35583,19 +35583,19 @@
         <v>4</v>
       </c>
       <c r="O419">
-        <v>0.46</v>
+        <v>-0.1603426500751794</v>
       </c>
       <c r="P419">
-        <v>0.4</v>
+        <v>1.271305536174175</v>
       </c>
       <c r="Q419">
         <v>4</v>
       </c>
       <c r="R419">
-        <v>0.55</v>
+        <v>0.2006706954621514</v>
       </c>
       <c r="S419">
-        <v>0.4</v>
+        <v>1.313240589983988</v>
       </c>
       <c r="T419" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -35683,19 +35683,19 @@
         <v>4</v>
       </c>
       <c r="O420">
-        <v>0.24</v>
+        <v>-1.152679509938386</v>
       </c>
       <c r="P420">
-        <v>0.25</v>
+        <v>1.149581319420416</v>
       </c>
       <c r="Q420">
         <v>6</v>
       </c>
       <c r="R420">
-        <v>0.25</v>
+        <v>-1.09861228866811</v>
       </c>
       <c r="S420">
-        <v>0.3</v>
+        <v>1.194431524477928</v>
       </c>
       <c r="T420" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -35783,19 +35783,19 @@
         <v>36</v>
       </c>
       <c r="O421">
-        <v>0.1263227513227513</v>
+        <v>-1.933870876475696</v>
       </c>
       <c r="P421">
-        <v>0.1840602643212011</v>
+        <v>1.133315353740087</v>
       </c>
       <c r="Q421">
         <v>24</v>
       </c>
       <c r="R421">
-        <v>0.3412698412698412</v>
+        <v>-0.6576404921030357</v>
       </c>
       <c r="S421">
-        <v>0.3503963662209461</v>
+        <v>1.22130429051924</v>
       </c>
       <c r="T421" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -35883,19 +35883,19 @@
         <v>27</v>
       </c>
       <c r="O422">
-        <v>0.04497354497354497</v>
+        <v>-3.055664614276665</v>
       </c>
       <c r="P422">
-        <v>0.05086609607800537</v>
+        <v>1.029348057567967</v>
       </c>
       <c r="Q422">
         <v>24</v>
       </c>
       <c r="R422">
-        <v>0.06547619047619048</v>
+        <v>-2.658350532549937</v>
       </c>
       <c r="S422">
-        <v>0.1030085726798923</v>
+        <v>1.079981910088728</v>
       </c>
       <c r="T422" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Wallaby, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -35980,19 +35980,19 @@
         <v>220</v>
       </c>
       <c r="O423">
-        <v>32.7371273712737</v>
+        <v>-0.7200985872697928</v>
       </c>
       <c r="P423">
-        <v>8.039239552407359</v>
+        <v>1.404727011178633</v>
       </c>
       <c r="Q423">
         <v>364</v>
       </c>
       <c r="R423">
-        <v>13.98373983739838</v>
+        <v>-1.816641135604791</v>
       </c>
       <c r="S423">
-        <v>35.15873479477087</v>
+        <v>9.401755298703486</v>
       </c>
       <c r="T423" t="inlineStr">
         <is>
@@ -36080,19 +36080,19 @@
         <v>9</v>
       </c>
       <c r="O424">
-        <v>97.3333333333333</v>
+        <v>3.597312260588435</v>
       </c>
       <c r="P424">
-        <v>4.271186440678008</v>
+        <v>0.4328081120480832</v>
       </c>
       <c r="Q424">
         <v>9</v>
       </c>
       <c r="R424">
-        <v>98.91525423728811</v>
+        <v>4.512917826282979</v>
       </c>
       <c r="S424">
-        <v>2.237288135593246</v>
+        <v>0.2247249109402149</v>
       </c>
       <c r="T424" t="inlineStr">
         <is>
@@ -36180,19 +36180,19 @@
         <v>9</v>
       </c>
       <c r="O425">
-        <v>95.86440677966098</v>
+        <v>3.143303982283198</v>
       </c>
       <c r="P425">
-        <v>6.033898305084747</v>
+        <v>0.6161792372127131</v>
       </c>
       <c r="Q425">
         <v>9</v>
       </c>
       <c r="R425">
-        <v>99.819209039548</v>
+        <v>6.313774469916543</v>
       </c>
       <c r="S425">
-        <v>0.677966101694949</v>
+        <v>0.06711432487032609</v>
       </c>
       <c r="T425" t="inlineStr">
         <is>
@@ -36224,7 +36224,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -36234,7 +36234,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -36277,19 +36277,19 @@
         <v>32</v>
       </c>
       <c r="O426">
-        <v>0.7331288343558283</v>
+        <v>1.010555433276928</v>
       </c>
       <c r="P426">
-        <v>0.3470462729749932</v>
+        <v>1.525235224816818</v>
       </c>
       <c r="Q426">
         <v>22</v>
       </c>
       <c r="R426">
-        <v>0.4325153374233132</v>
+        <v>-0.2715959347001551</v>
       </c>
       <c r="S426">
-        <v>0.3884700169178912</v>
+        <v>1.256593628668788</v>
       </c>
       <c r="T426" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -36331,7 +36331,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -36374,19 +36374,19 @@
         <v>19</v>
       </c>
       <c r="O427">
-        <v>0.4631901840490799</v>
+        <v>-0.1475061371085889</v>
       </c>
       <c r="P427">
-        <v>0.4412382366160819</v>
+        <v>1.301335585328232</v>
       </c>
       <c r="Q427">
         <v>14</v>
       </c>
       <c r="R427">
-        <v>0.1840490797546015</v>
+        <v>-1.489151746559597</v>
       </c>
       <c r="S427">
-        <v>0.3098918694567374</v>
+        <v>1.247734302140334</v>
       </c>
       <c r="T427" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -36428,7 +36428,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -36471,19 +36471,19 @@
         <v>32</v>
       </c>
       <c r="O428">
-        <v>0.5981595092024542</v>
+        <v>0.3978022353625961</v>
       </c>
       <c r="P428">
-        <v>0.3470462729749919</v>
+        <v>1.326079761321621</v>
       </c>
       <c r="Q428">
         <v>22</v>
       </c>
       <c r="R428">
-        <v>0.4877300613496934</v>
+        <v>-0.04908961019652316</v>
       </c>
       <c r="S428">
-        <v>0.3453066817047925</v>
+        <v>1.247639017632453</v>
       </c>
       <c r="T428" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -36525,7 +36525,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -36568,19 +36568,19 @@
         <v>19</v>
       </c>
       <c r="O429">
-        <v>0.5092024539877303</v>
+        <v>0.03681397312271747</v>
       </c>
       <c r="P429">
-        <v>0.3209005357207859</v>
+        <v>1.245906519309924</v>
       </c>
       <c r="Q429">
         <v>14</v>
       </c>
       <c r="R429">
-        <v>0.1809815950920247</v>
+        <v>-1.509711214494529</v>
       </c>
       <c r="S429">
-        <v>0.2295495329309166</v>
+        <v>1.151092785738769</v>
       </c>
       <c r="T429" t="inlineStr">
         <is>
@@ -36612,7 +36612,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Genetic resistance</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -36668,19 +36668,19 @@
         <v>9</v>
       </c>
       <c r="O430">
-        <v>95.86440677966098</v>
+        <v>3.143303982283198</v>
       </c>
       <c r="P430">
-        <v>6.033898305084747</v>
+        <v>0.6161792372127131</v>
       </c>
       <c r="Q430">
         <v>9</v>
       </c>
       <c r="R430">
-        <v>97.3333333333333</v>
+        <v>3.597312260588435</v>
       </c>
       <c r="S430">
-        <v>4.271186440678008</v>
+        <v>0.4328081120480832</v>
       </c>
       <c r="T430" t="inlineStr">
         <is>
@@ -36712,7 +36712,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Genetic resistance</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -36768,19 +36768,19 @@
         <v>9</v>
       </c>
       <c r="O431">
-        <v>99.819209039548</v>
+        <v>6.313774469916543</v>
       </c>
       <c r="P431">
-        <v>0.677966101694949</v>
+        <v>0.06711432487032609</v>
       </c>
       <c r="Q431">
         <v>9</v>
       </c>
       <c r="R431">
-        <v>98.91525423728811</v>
+        <v>4.512917826282979</v>
       </c>
       <c r="S431">
-        <v>2.237288135593246</v>
+        <v>0.2247249109402149</v>
       </c>
       <c r="T431" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -36868,19 +36868,19 @@
         <v>4</v>
       </c>
       <c r="O432">
-        <v>84.15841584158416</v>
+        <v>1.670062534250535</v>
       </c>
       <c r="P432">
-        <v>12.54125412541254</v>
+        <v>1.367022882537511</v>
       </c>
       <c r="Q432">
         <v>4</v>
       </c>
       <c r="R432">
-        <v>38.94389438943897</v>
+        <v>-0.4496712006126591</v>
       </c>
       <c r="S432">
-        <v>25.7425742574257</v>
+        <v>4.124999164362753</v>
       </c>
       <c r="T432" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -36968,19 +36968,19 @@
         <v>4</v>
       </c>
       <c r="O433">
-        <v>9.240924092409273</v>
+        <v>-2.284566587491364</v>
       </c>
       <c r="P433">
-        <v>11.22112211221122</v>
+        <v>3.689688224054488</v>
       </c>
       <c r="Q433">
         <v>4</v>
       </c>
       <c r="R433">
-        <v>4.95049504950498</v>
+        <v>-2.95491027903373</v>
       </c>
       <c r="S433">
-        <v>21.12211221122112</v>
+        <v>9.490967933117551</v>
       </c>
       <c r="T433" t="inlineStr">
         <is>
@@ -37068,19 +37068,19 @@
         <v>20</v>
       </c>
       <c r="O434">
-        <v>2.5</v>
+        <v>-3.663561646129646</v>
       </c>
       <c r="P434">
-        <v>4.024922359499622</v>
+        <v>2.507892304211609</v>
       </c>
       <c r="Q434">
         <v>20</v>
       </c>
       <c r="R434">
-        <v>8.9</v>
+        <v>-2.325906527527819</v>
       </c>
       <c r="S434">
-        <v>11.62755348299891</v>
+        <v>3.89592417113316</v>
       </c>
       <c r="T434" t="inlineStr">
         <is>
@@ -37168,19 +37168,19 @@
         <v>20</v>
       </c>
       <c r="O435">
-        <v>0.6</v>
+        <v>-5.109977737428519</v>
       </c>
       <c r="P435">
-        <v>1.341640786499874</v>
+        <v>2.136000936329383</v>
       </c>
       <c r="Q435">
         <v>20</v>
       </c>
       <c r="R435">
-        <v>4.8</v>
+        <v>-2.987364023883474</v>
       </c>
       <c r="S435">
-        <v>7.155417527999328</v>
+        <v>3.259032773055523</v>
       </c>
       <c r="T435" t="inlineStr">
         <is>
@@ -37268,19 +37268,19 @@
         <v>20</v>
       </c>
       <c r="O436">
-        <v>0.1</v>
+        <v>-6.906754778648554</v>
       </c>
       <c r="P436">
-        <v>0.447213595499958</v>
+        <v>1.734964267672683</v>
       </c>
       <c r="Q436">
         <v>20</v>
       </c>
       <c r="R436">
-        <v>1.5</v>
+        <v>-4.184591440069878</v>
       </c>
       <c r="S436">
-        <v>3.577708763999664</v>
+        <v>2.780887148615228</v>
       </c>
       <c r="T436" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -37322,7 +37322,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -37368,19 +37368,19 @@
         <v>5</v>
       </c>
       <c r="O437">
-        <v>32.36</v>
+        <v>-0.7372764318400886</v>
       </c>
       <c r="P437">
-        <v>10.38</v>
+        <v>1.824444884950427</v>
       </c>
       <c r="Q437">
         <v>5</v>
       </c>
       <c r="R437">
-        <v>32.32</v>
+        <v>-0.7391044816450734</v>
       </c>
       <c r="S437">
-        <v>6.26</v>
+        <v>1.100694955953358</v>
       </c>
       <c r="T437" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -37422,7 +37422,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -37468,19 +37468,19 @@
         <v>5</v>
       </c>
       <c r="O438">
-        <v>32.36</v>
+        <v>-0.7372764318400886</v>
       </c>
       <c r="P438">
-        <v>10.38</v>
+        <v>1.824444884950427</v>
       </c>
       <c r="Q438">
         <v>5</v>
       </c>
       <c r="R438">
-        <v>33.9</v>
+        <v>-0.6677537324712363</v>
       </c>
       <c r="S438">
-        <v>7.18</v>
+        <v>1.232821496887206</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -37522,7 +37522,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -37568,19 +37568,19 @@
         <v>5</v>
       </c>
       <c r="O439">
-        <v>17.69</v>
+        <v>-1.537493098812859</v>
       </c>
       <c r="P439">
-        <v>9.09</v>
+        <v>2.160483134672168</v>
       </c>
       <c r="Q439">
         <v>5</v>
       </c>
       <c r="R439">
-        <v>19.23</v>
+        <v>-1.435134049853517</v>
       </c>
       <c r="S439">
-        <v>3.3</v>
+        <v>0.7507270497045857</v>
       </c>
       <c r="T439" t="inlineStr">
         <is>
@@ -37612,7 +37612,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -37622,7 +37622,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -37668,19 +37668,19 @@
         <v>5</v>
       </c>
       <c r="O440">
-        <v>17.69</v>
+        <v>-1.537493098812859</v>
       </c>
       <c r="P440">
-        <v>9.09</v>
+        <v>2.160483134672168</v>
       </c>
       <c r="Q440">
         <v>5</v>
       </c>
       <c r="R440">
-        <v>20.59</v>
+        <v>-1.349818783867422</v>
       </c>
       <c r="S440">
-        <v>6.5</v>
+        <v>1.431643327777808</v>
       </c>
       <c r="T440" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -37768,19 +37768,19 @@
         <v>5</v>
       </c>
       <c r="O441">
-        <v>19.51</v>
+        <v>-1.417205798470623</v>
       </c>
       <c r="P441">
-        <v>5.68</v>
+        <v>1.284912432867073</v>
       </c>
       <c r="Q441">
         <v>5</v>
       </c>
       <c r="R441">
-        <v>4.88</v>
+        <v>-2.969994032517471</v>
       </c>
       <c r="S441">
-        <v>2.83</v>
+        <v>1.263857613424425</v>
       </c>
       <c r="T441" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -37822,7 +37822,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -37868,19 +37868,19 @@
         <v>5</v>
       </c>
       <c r="O442">
-        <v>19.51</v>
+        <v>-1.417205798470623</v>
       </c>
       <c r="P442">
-        <v>5.68</v>
+        <v>1.284912432867073</v>
       </c>
       <c r="Q442">
         <v>5</v>
       </c>
       <c r="R442">
-        <v>18.67</v>
+        <v>-1.471596994625053</v>
       </c>
       <c r="S442">
-        <v>8.5</v>
+        <v>1.966460664038461</v>
       </c>
       <c r="T442" t="inlineStr">
         <is>
@@ -37912,7 +37912,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -37922,7 +37922,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -37968,19 +37968,19 @@
         <v>5</v>
       </c>
       <c r="O443">
-        <v>13.67</v>
+        <v>-1.842973511511573</v>
       </c>
       <c r="P443">
-        <v>9.449999999999999</v>
+        <v>2.554869034188342</v>
       </c>
       <c r="Q443">
         <v>5</v>
       </c>
       <c r="R443">
-        <v>6.59</v>
+        <v>-2.651445057370342</v>
       </c>
       <c r="S443">
-        <v>3.78</v>
+        <v>1.464453805429667</v>
       </c>
       <c r="T443" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -38022,7 +38022,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Moose</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -38068,19 +38068,19 @@
         <v>5</v>
       </c>
       <c r="O444">
-        <v>13.67</v>
+        <v>-1.842973511511573</v>
       </c>
       <c r="P444">
-        <v>9.449999999999999</v>
+        <v>2.554869034188342</v>
       </c>
       <c r="Q444">
         <v>5</v>
       </c>
       <c r="R444">
-        <v>8.09</v>
+        <v>-2.430181106299618</v>
       </c>
       <c r="S444">
-        <v>9.27</v>
+        <v>3.25677714303814</v>
       </c>
       <c r="T444" t="inlineStr">
         <is>
@@ -38112,7 +38112,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -38168,19 +38168,19 @@
         <v>6</v>
       </c>
       <c r="O445">
-        <v>85.23364485981308</v>
+        <v>1.753044957047365</v>
       </c>
       <c r="P445">
-        <v>30.52323667019533</v>
+        <v>3.306148212949404</v>
       </c>
       <c r="Q445">
         <v>6</v>
       </c>
       <c r="R445">
-        <v>68.03738317757009</v>
+        <v>0.7554903111340805</v>
       </c>
       <c r="S445">
-        <v>43.95346080508132</v>
+        <v>5.328655244547131</v>
       </c>
       <c r="T445" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -38222,7 +38222,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -38268,19 +38268,19 @@
         <v>9</v>
       </c>
       <c r="O446">
-        <v>0.00334549878345499</v>
+        <v>-5.696788375900444</v>
       </c>
       <c r="P446">
-        <v>0.006982720095337404</v>
+        <v>1.007266357775542</v>
       </c>
       <c r="Q446">
         <v>9</v>
       </c>
       <c r="R446">
-        <v>0.001277372262773723</v>
+        <v>-6.661672042088605</v>
       </c>
       <c r="S446">
-        <v>0.003537911514970953</v>
+        <v>1.004888308207354</v>
       </c>
       <c r="T446" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -38322,7 +38322,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -38368,19 +38368,19 @@
         <v>9</v>
       </c>
       <c r="O447">
-        <v>0.0165714285714286</v>
+        <v>-4.083364966225063</v>
       </c>
       <c r="P447">
-        <v>0.0139941690962099</v>
+        <v>1.006028043207214</v>
       </c>
       <c r="Q447">
         <v>9</v>
       </c>
       <c r="R447">
-        <v>0.01100000000000002</v>
+        <v>-4.49879905882434</v>
       </c>
       <c r="S447">
-        <v>0.01224489795918367</v>
+        <v>1.006852371913277</v>
       </c>
       <c r="T447" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -38468,19 +38468,19 @@
         <v>80</v>
       </c>
       <c r="O448">
-        <v>5.2</v>
+        <v>-2.903110783673594</v>
       </c>
       <c r="P448">
-        <v>8.049844718999244</v>
+        <v>3.524646933209221</v>
       </c>
       <c r="Q448">
         <v>80</v>
       </c>
       <c r="R448">
-        <v>4.2</v>
+        <v>-3.127178159687492</v>
       </c>
       <c r="S448">
-        <v>8.049844718999244</v>
+        <v>3.920264694472209</v>
       </c>
       <c r="T448" t="inlineStr">
         <is>
@@ -38512,7 +38512,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -38568,19 +38568,19 @@
         <v>80</v>
       </c>
       <c r="O449">
-        <v>5.2</v>
+        <v>-2.903110783673594</v>
       </c>
       <c r="P449">
-        <v>8.049844718999244</v>
+        <v>3.524646933209221</v>
       </c>
       <c r="Q449">
         <v>80</v>
       </c>
       <c r="R449">
-        <v>3.6</v>
+        <v>-3.287572356154436</v>
       </c>
       <c r="S449">
-        <v>6.260990336999411</v>
+        <v>3.287138093958803</v>
       </c>
       <c r="T449" t="inlineStr">
         <is>
@@ -38612,7 +38612,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -38668,19 +38668,19 @@
         <v>80</v>
       </c>
       <c r="O450">
-        <v>5.2</v>
+        <v>-2.903110783673594</v>
       </c>
       <c r="P450">
-        <v>8.049844718999244</v>
+        <v>3.524646933209221</v>
       </c>
       <c r="Q450">
         <v>80</v>
       </c>
       <c r="R450">
-        <v>2.3</v>
+        <v>-3.748992436113633</v>
       </c>
       <c r="S450">
-        <v>6.260990336999411</v>
+        <v>4.1000461006883</v>
       </c>
       <c r="T450" t="inlineStr">
         <is>
@@ -38712,7 +38712,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -38768,19 +38768,19 @@
         <v>80</v>
       </c>
       <c r="O451">
-        <v>5.2</v>
+        <v>-2.903110783673594</v>
       </c>
       <c r="P451">
-        <v>8.049844718999244</v>
+        <v>3.524646933209221</v>
       </c>
       <c r="Q451">
         <v>80</v>
       </c>
       <c r="R451">
-        <v>2.7</v>
+        <v>-3.584547216181676</v>
       </c>
       <c r="S451">
-        <v>5.366563145999495</v>
+        <v>3.241555823172412</v>
       </c>
       <c r="T451" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -38868,19 +38868,19 @@
         <v>80</v>
       </c>
       <c r="O452">
-        <v>5.2</v>
+        <v>-2.903110783673594</v>
       </c>
       <c r="P452">
-        <v>8.049844718999244</v>
+        <v>3.524646933209221</v>
       </c>
       <c r="Q452">
         <v>80</v>
       </c>
       <c r="R452">
-        <v>2.6</v>
+        <v>-3.623314765621053</v>
       </c>
       <c r="S452">
-        <v>5.366563145999495</v>
+        <v>3.302016348507676</v>
       </c>
       <c r="T452" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -38968,19 +38968,19 @@
         <v>80</v>
       </c>
       <c r="O453">
-        <v>5.2</v>
+        <v>-2.903110783673594</v>
       </c>
       <c r="P453">
-        <v>8.049844718999244</v>
+        <v>3.524646933209221</v>
       </c>
       <c r="Q453">
         <v>80</v>
       </c>
       <c r="R453">
-        <v>2.7</v>
+        <v>-3.584547216181676</v>
       </c>
       <c r="S453">
-        <v>5.366563145999495</v>
+        <v>3.241555823172412</v>
       </c>
       <c r="T453" t="inlineStr">
         <is>
@@ -39012,7 +39012,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -39068,19 +39068,19 @@
         <v>80</v>
       </c>
       <c r="O454">
-        <v>5.2</v>
+        <v>-2.903110783673594</v>
       </c>
       <c r="P454">
-        <v>8.049844718999244</v>
+        <v>3.524646933209221</v>
       </c>
       <c r="Q454">
         <v>80</v>
       </c>
       <c r="R454">
-        <v>2.5</v>
+        <v>-3.663561646129646</v>
       </c>
       <c r="S454">
-        <v>5.366563145999495</v>
+        <v>3.365935799970613</v>
       </c>
       <c r="T454" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -39168,19 +39168,19 @@
         <v>80</v>
       </c>
       <c r="O455">
-        <v>5.2</v>
+        <v>-2.903110783673594</v>
       </c>
       <c r="P455">
-        <v>8.049844718999244</v>
+        <v>3.524646933209221</v>
       </c>
       <c r="Q455">
         <v>80</v>
       </c>
       <c r="R455">
-        <v>1.9</v>
+        <v>-3.944133480398923</v>
       </c>
       <c r="S455">
-        <v>3.577708763999664</v>
+        <v>2.520654744865122</v>
       </c>
       <c r="T455" t="inlineStr">
         <is>
@@ -39212,7 +39212,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -39268,19 +39268,19 @@
         <v>80</v>
       </c>
       <c r="O456">
-        <v>5.2</v>
+        <v>-2.903110783673594</v>
       </c>
       <c r="P456">
-        <v>8.049844718999244</v>
+        <v>3.524646933209221</v>
       </c>
       <c r="Q456">
         <v>80</v>
       </c>
       <c r="R456">
-        <v>1.7</v>
+        <v>-4.05739577609095</v>
       </c>
       <c r="S456">
-        <v>3.577708763999664</v>
+        <v>2.64581012841159</v>
       </c>
       <c r="T456" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -39368,19 +39368,19 @@
         <v>7</v>
       </c>
       <c r="O457">
-        <v>30.8</v>
+        <v>-0.8094861726440951</v>
       </c>
       <c r="P457">
-        <v>29.89698981502988</v>
+        <v>5.386965685096283</v>
       </c>
       <c r="Q457">
         <v>7</v>
       </c>
       <c r="R457">
-        <v>1.488372093023244</v>
+        <v>-4.192491623361633</v>
       </c>
       <c r="S457">
-        <v>4.430095218526765</v>
+        <v>3.516130197711366</v>
       </c>
       <c r="T457" t="inlineStr">
         <is>
@@ -39412,7 +39412,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -39468,19 +39468,19 @@
         <v>7</v>
       </c>
       <c r="O458">
-        <v>30.8</v>
+        <v>-0.8094861726440951</v>
       </c>
       <c r="P458">
-        <v>29.89698981502988</v>
+        <v>5.386965685096283</v>
       </c>
       <c r="Q458">
         <v>7</v>
       </c>
       <c r="R458">
-        <v>1.860465116279059</v>
+        <v>-3.965563772356182</v>
       </c>
       <c r="S458">
-        <v>3.445629614409705</v>
+        <v>2.444404020558725</v>
       </c>
       <c r="T458" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -39568,19 +39568,19 @@
         <v>7</v>
       </c>
       <c r="O459">
-        <v>30.8</v>
+        <v>-0.8094861726440951</v>
       </c>
       <c r="P459">
-        <v>29.89698981502988</v>
+        <v>5.386965685096283</v>
       </c>
       <c r="Q459">
         <v>7</v>
       </c>
       <c r="R459">
-        <v>1.302325581395344</v>
+        <v>-4.327909808998728</v>
       </c>
       <c r="S459">
-        <v>1.968931208234099</v>
+        <v>1.240995467103733</v>
       </c>
       <c r="T459" t="inlineStr">
         <is>
@@ -39668,19 +39668,19 @@
         <v>18</v>
       </c>
       <c r="O460">
-        <v>10.18</v>
+        <v>-2.177382656537215</v>
       </c>
       <c r="P460">
-        <v>3.945655839020935</v>
+        <v>1.232699971221423</v>
       </c>
       <c r="Q460">
         <v>18</v>
       </c>
       <c r="R460">
-        <v>10.47</v>
+        <v>-2.146059739763619</v>
       </c>
       <c r="S460">
-        <v>3.945655839020935</v>
+        <v>1.215618264934756</v>
       </c>
       <c r="T460" t="inlineStr">
         <is>
@@ -39768,19 +39768,19 @@
         <v>18</v>
       </c>
       <c r="O461">
-        <v>7.45</v>
+        <v>-2.519535006628038</v>
       </c>
       <c r="P461">
-        <v>3.945655839020935</v>
+        <v>1.439216277338455</v>
       </c>
       <c r="Q461">
         <v>18</v>
       </c>
       <c r="R461">
-        <v>4.11</v>
+        <v>-3.149778672657447</v>
       </c>
       <c r="S461">
-        <v>3.945655839020935</v>
+        <v>1.930015250100397</v>
       </c>
       <c r="T461" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -39868,19 +39868,19 @@
         <v>36</v>
       </c>
       <c r="O462">
-        <v>0.1263227513227513</v>
+        <v>-1.933870876475696</v>
       </c>
       <c r="P462">
-        <v>0.1840602643212011</v>
+        <v>1.133315353740087</v>
       </c>
       <c r="Q462">
         <v>36</v>
       </c>
       <c r="R462">
-        <v>0.2738095238095238</v>
+        <v>-0.9753796482441618</v>
       </c>
       <c r="S462">
-        <v>0.3367896608748162</v>
+        <v>1.222826272161103</v>
       </c>
       <c r="T462" t="inlineStr">
         <is>
@@ -39922,7 +39922,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -39968,19 +39968,19 @@
         <v>27</v>
       </c>
       <c r="O463">
-        <v>0.04497354497354497</v>
+        <v>-3.055664614276665</v>
       </c>
       <c r="P463">
-        <v>0.05086609607800537</v>
+        <v>1.029348057567967</v>
       </c>
       <c r="Q463">
         <v>36</v>
       </c>
       <c r="R463">
-        <v>0.07930495430495431</v>
+        <v>-2.451828267097893</v>
       </c>
       <c r="S463">
-        <v>0.1109673035377317</v>
+        <v>1.077775424391272</v>
       </c>
       <c r="T463" t="inlineStr">
         <is>
@@ -40068,19 +40068,19 @@
         <v>6</v>
       </c>
       <c r="O464">
-        <v>85.23364485981308</v>
+        <v>1.753044957047365</v>
       </c>
       <c r="P464">
-        <v>30.52323667019533</v>
+        <v>3.306148212949404</v>
       </c>
       <c r="Q464">
         <v>6</v>
       </c>
       <c r="R464">
-        <v>77.00934579439253</v>
+        <v>1.208838993977109</v>
       </c>
       <c r="S464">
-        <v>37.23834873763835</v>
+        <v>4.243426302573383</v>
       </c>
       <c r="T464" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Wallaby, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -40165,19 +40165,19 @@
         <v>220</v>
       </c>
       <c r="O465">
-        <v>32.7371273712737</v>
+        <v>-0.7200985872697928</v>
       </c>
       <c r="P465">
-        <v>8.039239552407359</v>
+        <v>1.404727011178633</v>
       </c>
       <c r="Q465">
         <v>185</v>
       </c>
       <c r="R465">
-        <v>12.35772357723578</v>
+        <v>-1.958982230622665</v>
       </c>
       <c r="S465">
-        <v>20.64179806203747</v>
+        <v>5.871333786332313</v>
       </c>
       <c r="T465" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Wallaby, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -40262,19 +40262,19 @@
         <v>220</v>
       </c>
       <c r="O466">
-        <v>32.7371273712737</v>
+        <v>-0.7200985872697928</v>
       </c>
       <c r="P466">
-        <v>8.039239552407359</v>
+        <v>1.404727011178633</v>
       </c>
       <c r="Q466">
         <v>124</v>
       </c>
       <c r="R466">
-        <v>23.84823848238483</v>
+        <v>-1.161017854855539</v>
       </c>
       <c r="S466">
-        <v>10.86393046405859</v>
+        <v>2.224239385258292</v>
       </c>
       <c r="T466" t="inlineStr">
         <is>
@@ -40362,19 +40362,19 @@
         <v>16</v>
       </c>
       <c r="O467">
-        <v>10.62906724511931</v>
+        <v>-2.129203051238899</v>
       </c>
       <c r="P467">
-        <v>23.02005400858823</v>
+        <v>7.060246450932228</v>
       </c>
       <c r="Q467">
         <v>16</v>
       </c>
       <c r="R467">
-        <v>52.06073752711495</v>
+        <v>0.082476221824238</v>
       </c>
       <c r="S467">
-        <v>31.87392093496836</v>
+        <v>4.417496618463627</v>
       </c>
       <c r="T467" t="inlineStr">
         <is>
@@ -40462,19 +40462,19 @@
         <v>16</v>
       </c>
       <c r="O468">
-        <v>18.43817787418655</v>
+        <v>-1.486937886899578</v>
       </c>
       <c r="P468">
-        <v>42.49856124662444</v>
+        <v>9.897116616182924</v>
       </c>
       <c r="Q468">
         <v>16</v>
       </c>
       <c r="R468">
-        <v>42.29934924078091</v>
+        <v>-0.3104967502179521</v>
       </c>
       <c r="S468">
-        <v>29.21776085705429</v>
+        <v>4.492355020060486</v>
       </c>
       <c r="T468" t="inlineStr">
         <is>
@@ -40562,19 +40562,19 @@
         <v>16</v>
       </c>
       <c r="O469">
-        <v>44.2516268980477</v>
+        <v>-0.2309560910510046</v>
       </c>
       <c r="P469">
-        <v>49.13896144140956</v>
+        <v>7.386850661623095</v>
       </c>
       <c r="Q469">
         <v>16</v>
       </c>
       <c r="R469">
-        <v>72.88503253796095</v>
+        <v>0.9887974226609029</v>
       </c>
       <c r="S469">
-        <v>23.46274735490725</v>
+        <v>2.748237587177325</v>
       </c>
       <c r="T469" t="inlineStr">
         <is>
@@ -40662,19 +40662,19 @@
         <v>16</v>
       </c>
       <c r="O470">
-        <v>20.39045553145336</v>
+        <v>-1.362067065784567</v>
       </c>
       <c r="P470">
-        <v>23.02005400858825</v>
+        <v>5.097681863416045</v>
       </c>
       <c r="Q470">
         <v>16</v>
       </c>
       <c r="R470">
-        <v>76.57266811279825</v>
+        <v>1.184336829809077</v>
       </c>
       <c r="S470">
-        <v>18.1504271990792</v>
+        <v>2.074155686853954</v>
       </c>
       <c r="T470" t="inlineStr">
         <is>
@@ -40762,19 +40762,19 @@
         <v>16</v>
       </c>
       <c r="O471">
-        <v>69.84815618221258</v>
+        <v>0.840077612413716</v>
       </c>
       <c r="P471">
-        <v>27.88968081809727</v>
+        <v>3.337045077443488</v>
       </c>
       <c r="Q471">
         <v>16</v>
       </c>
       <c r="R471">
-        <v>81.77874186550976</v>
+        <v>1.501428388604697</v>
       </c>
       <c r="S471">
-        <v>16.82234716012215</v>
+        <v>1.860188667222864</v>
       </c>
       <c r="T471" t="inlineStr">
         <is>
@@ -40862,19 +40862,19 @@
         <v>16</v>
       </c>
       <c r="O472">
-        <v>25.37960954446854</v>
+        <v>-1.078467722575642</v>
       </c>
       <c r="P472">
-        <v>26.11890743282127</v>
+        <v>5.184417601299487</v>
       </c>
       <c r="Q472">
         <v>16</v>
       </c>
       <c r="R472">
-        <v>75.70498915401299</v>
+        <v>1.136573050907331</v>
       </c>
       <c r="S472">
-        <v>14.60888042852719</v>
+        <v>1.678963446515523</v>
       </c>
       <c r="T472" t="inlineStr">
         <is>
@@ -40962,19 +40962,19 @@
         <v>16</v>
       </c>
       <c r="O473">
-        <v>43.81778741865509</v>
+        <v>-0.2485603642983334</v>
       </c>
       <c r="P473">
-        <v>39.84240116871045</v>
+        <v>6.01890042429683</v>
       </c>
       <c r="Q473">
         <v>16</v>
       </c>
       <c r="R473">
-        <v>87.8524945770065</v>
+        <v>1.978535376371389</v>
       </c>
       <c r="S473">
-        <v>12.39541369693212</v>
+        <v>1.322415366835833</v>
       </c>
       <c r="T473" t="inlineStr">
         <is>
@@ -41062,19 +41062,19 @@
         <v>16</v>
       </c>
       <c r="O474">
-        <v>60.30368763557483</v>
+        <v>0.4181349608492159</v>
       </c>
       <c r="P474">
-        <v>26.11890743282126</v>
+        <v>3.363394355961352</v>
       </c>
       <c r="Q474">
         <v>16</v>
       </c>
       <c r="R474">
-        <v>87.20173535791756</v>
+        <v>1.9189146447133</v>
       </c>
       <c r="S474">
-        <v>11.06733365797513</v>
+        <v>1.185113937083301</v>
       </c>
       <c r="T474" t="inlineStr">
         <is>
@@ -41162,19 +41162,19 @@
         <v>16</v>
       </c>
       <c r="O475">
-        <v>49.02386117136659</v>
+        <v>-0.03905051487187326</v>
       </c>
       <c r="P475">
-        <v>40.72778786134844</v>
+        <v>5.81680350851959</v>
       </c>
       <c r="Q475">
         <v>16</v>
       </c>
       <c r="R475">
-        <v>94.57700650759219</v>
+        <v>2.858766418480833</v>
       </c>
       <c r="S475">
-        <v>7.968480233742092</v>
+        <v>0.8193067852692294</v>
       </c>
       <c r="T475" t="inlineStr">
         <is>
@@ -41262,19 +41262,19 @@
         <v>16</v>
       </c>
       <c r="O476">
-        <v>86.33405639913231</v>
+        <v>1.843317278892904</v>
       </c>
       <c r="P476">
-        <v>14.60888042852713</v>
+        <v>1.572222741931094</v>
       </c>
       <c r="Q476">
         <v>16</v>
       </c>
       <c r="R476">
-        <v>98.91540130151841</v>
+        <v>4.513054897080262</v>
       </c>
       <c r="S476">
-        <v>1.770773385276017</v>
+        <v>0.1777582300928096</v>
       </c>
       <c r="T476" t="inlineStr">
         <is>
@@ -41362,19 +41362,19 @@
         <v>25</v>
       </c>
       <c r="O477">
-        <v>9.912536443148696</v>
+        <v>-2.206980752281583</v>
       </c>
       <c r="P477">
-        <v>49.83042779794132</v>
+        <v>15.82680691212629</v>
       </c>
       <c r="Q477">
         <v>25</v>
       </c>
       <c r="R477">
-        <v>34.98542274052479</v>
+        <v>-0.6196800286780724</v>
       </c>
       <c r="S477">
-        <v>80.32367465936809</v>
+        <v>13.57997725728038</v>
       </c>
       <c r="T477" t="inlineStr">
         <is>
@@ -41462,19 +41462,19 @@
         <v>25</v>
       </c>
       <c r="O478">
-        <v>17.49271137026239</v>
+        <v>-1.551102335421137</v>
       </c>
       <c r="P478">
-        <v>40.16183732968406</v>
+        <v>9.602344570406816</v>
       </c>
       <c r="Q478">
         <v>25</v>
       </c>
       <c r="R478">
-        <v>55.10204081632654</v>
+        <v>0.204794412646014</v>
       </c>
       <c r="S478">
-        <v>49.08669006961379</v>
+        <v>6.612691624480679</v>
       </c>
       <c r="T478" t="inlineStr">
         <is>
@@ -41562,19 +41562,19 @@
         <v>25</v>
       </c>
       <c r="O479">
-        <v>9.037900874635572</v>
+        <v>-2.309015983324336</v>
       </c>
       <c r="P479">
-        <v>28.26203367644436</v>
+        <v>9.400244885973617</v>
       </c>
       <c r="Q479">
         <v>25</v>
       </c>
       <c r="R479">
-        <v>44.6064139941691</v>
+        <v>-0.2165861507680505</v>
       </c>
       <c r="S479">
-        <v>47.5992146129589</v>
+        <v>7.126872377089615</v>
       </c>
       <c r="T479" t="inlineStr">
         <is>
@@ -41662,19 +41662,19 @@
         <v>25</v>
       </c>
       <c r="O480">
-        <v>23.32361516034986</v>
+        <v>-1.190127397503883</v>
       </c>
       <c r="P480">
-        <v>29.74950913309931</v>
+        <v>6.159866947801635</v>
       </c>
       <c r="Q480">
         <v>25</v>
       </c>
       <c r="R480">
-        <v>56.85131195335276</v>
+        <v>0.2757872847996317</v>
       </c>
       <c r="S480">
-        <v>34.95567323139174</v>
+        <v>4.63600929781707</v>
       </c>
       <c r="T480" t="inlineStr">
         <is>
@@ -41762,19 +41762,19 @@
         <v>25</v>
       </c>
       <c r="O481">
-        <v>17.78425655976677</v>
+        <v>-1.531033206764802</v>
       </c>
       <c r="P481">
-        <v>31.23698458975427</v>
+        <v>7.406937707673874</v>
       </c>
       <c r="Q481">
         <v>25</v>
       </c>
       <c r="R481">
-        <v>62.39067055393586</v>
+        <v>0.5061636106601797</v>
       </c>
       <c r="S481">
-        <v>33.46819777473672</v>
+        <v>4.237106615796343</v>
       </c>
       <c r="T481" t="inlineStr">
         <is>
@@ -41862,19 +41862,19 @@
         <v>25</v>
       </c>
       <c r="O482">
-        <v>5.830903790087472</v>
+        <v>-2.781920049668664</v>
       </c>
       <c r="P482">
-        <v>17.84970547985958</v>
+        <v>7.389969689053919</v>
       </c>
       <c r="Q482">
         <v>25</v>
       </c>
       <c r="R482">
-        <v>45.18950437317785</v>
+        <v>-0.1930168459107024</v>
       </c>
       <c r="S482">
-        <v>33.4681977747367</v>
+        <v>4.978623050916398</v>
       </c>
       <c r="T482" t="inlineStr">
         <is>
@@ -41962,19 +41962,19 @@
         <v>25</v>
       </c>
       <c r="O483">
-        <v>12.53644314868805</v>
+        <v>-1.942582358962638</v>
       </c>
       <c r="P483">
-        <v>20.08091866484202</v>
+        <v>5.670915486388401</v>
       </c>
       <c r="Q483">
         <v>25</v>
       </c>
       <c r="R483">
-        <v>64.43148688046648</v>
+        <v>0.5941416567844967</v>
       </c>
       <c r="S483">
-        <v>26.77455821978933</v>
+        <v>3.335558289786523</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -42062,19 +42062,19 @@
         <v>25</v>
       </c>
       <c r="O484">
-        <v>51.89504373177842</v>
+        <v>0.07583807639150439</v>
       </c>
       <c r="P484">
-        <v>25.28708276313439</v>
+        <v>3.510178828810988</v>
       </c>
       <c r="Q484">
         <v>25</v>
       </c>
       <c r="R484">
-        <v>79.00874635568513</v>
+        <v>1.325452701863646</v>
       </c>
       <c r="S484">
-        <v>20.82465639316949</v>
+        <v>2.342793013162843</v>
       </c>
       <c r="T484" t="inlineStr">
         <is>
@@ -42162,19 +42162,19 @@
         <v>25</v>
       </c>
       <c r="O485">
-        <v>68.22157434402334</v>
+        <v>0.7639732331285584</v>
       </c>
       <c r="P485">
-        <v>21.56839412149691</v>
+        <v>2.611259892991696</v>
       </c>
       <c r="Q485">
         <v>25</v>
       </c>
       <c r="R485">
-        <v>80.46647230320698</v>
+        <v>1.415708246326183</v>
       </c>
       <c r="S485">
-        <v>17.8497054798596</v>
+        <v>1.989826004681388</v>
       </c>
       <c r="T485" t="inlineStr">
         <is>
@@ -42262,19 +42262,19 @@
         <v>25</v>
       </c>
       <c r="O486">
-        <v>52.18658892128281</v>
+        <v>0.08751937801655726</v>
       </c>
       <c r="P486">
-        <v>28.26203367644431</v>
+        <v>3.912179226811252</v>
       </c>
       <c r="Q486">
         <v>25</v>
       </c>
       <c r="R486">
-        <v>86.8804664723032</v>
+        <v>1.890430996735084</v>
       </c>
       <c r="S486">
-        <v>14.13101683822216</v>
+        <v>1.516002171184162</v>
       </c>
       <c r="T486" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Cover crop</t>
+          <t>Plant refuge</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -42316,7 +42316,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Wallaby</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -42383,7 +42383,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Cover crop</t>
+          <t>Plant refuge</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -42393,7 +42393,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Wallaby</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -42460,7 +42460,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Cover crop</t>
+          <t>Plant refuge</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -42470,7 +42470,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Wallaby</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -42547,7 +42547,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Beaver, rabbit, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -42624,7 +42624,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Beaver, rabbit, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -45242,7 +45242,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -45319,7 +45319,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -45396,7 +45396,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -45473,7 +45473,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -45781,7 +45781,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -45858,7 +45858,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -46859,7 +46859,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -46936,7 +46936,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
@@ -47013,7 +47013,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -47090,7 +47090,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -47167,7 +47167,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -47244,7 +47244,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -47321,7 +47321,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -47398,7 +47398,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -47475,7 +47475,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -47552,7 +47552,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -47629,7 +47629,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -47706,7 +47706,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -47783,7 +47783,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -47860,7 +47860,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -47937,7 +47937,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -48014,7 +48014,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -48768,7 +48768,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -48778,7 +48778,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -48845,7 +48845,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -48855,7 +48855,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -49163,7 +49163,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -49240,7 +49240,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -49317,7 +49317,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -49394,7 +49394,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -49471,7 +49471,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -49548,7 +49548,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -49625,7 +49625,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -49702,7 +49702,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -49769,7 +49769,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -49779,7 +49779,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Beaver, rabbit, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -49856,7 +49856,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -49933,7 +49933,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -50010,7 +50010,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Wallaby, kangaroo, deer, rabbit</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -50077,7 +50077,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -50154,7 +50154,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -50231,7 +50231,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -50308,7 +50308,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -50385,7 +50385,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -50462,7 +50462,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -50472,7 +50472,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Beaver</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -50539,7 +50539,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -50616,7 +50616,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -50693,7 +50693,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -50770,7 +50770,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -50847,7 +50847,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -50924,7 +50924,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -51001,7 +51001,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -51078,7 +51078,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -51155,7 +51155,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -51232,7 +51232,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -51309,7 +51309,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -51386,7 +51386,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -51463,7 +51463,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -51540,7 +51540,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -51550,7 +51550,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Beaver, rabbit, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -51617,7 +51617,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -51627,7 +51627,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>Beaver, rabbit, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -51694,7 +51694,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -51771,7 +51771,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -51848,7 +51848,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -51925,7 +51925,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -52002,7 +52002,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -52079,7 +52079,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -52156,7 +52156,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -52233,7 +52233,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -52310,7 +52310,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -52387,7 +52387,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -52464,7 +52464,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -52541,7 +52541,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -52551,7 +52551,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -52618,7 +52618,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -52628,7 +52628,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -52705,7 +52705,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -52782,7 +52782,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -52859,7 +52859,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -53321,7 +53321,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>Deer, voles, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">

--- a/Analysis/Comp_comb_lscape.xlsx
+++ b/Analysis/Comp_comb_lscape.xlsx
@@ -18364,7 +18364,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -18536,7 +18536,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -18622,7 +18622,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -20185,7 +20185,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -20271,7 +20271,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -20443,7 +20443,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -20529,7 +20529,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -20615,7 +20615,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -20701,7 +20701,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -20873,7 +20873,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -34528,7 +34528,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -34628,7 +34628,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -34728,7 +34728,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -37418,7 +37418,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -37521,7 +37521,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -37624,7 +37624,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -37727,7 +37727,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -37830,7 +37830,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -37933,7 +37933,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -49245,7 +49245,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -49322,7 +49322,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -49894,7 +49894,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -49974,7 +49974,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -50054,7 +50054,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -50134,7 +50134,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -50214,7 +50214,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -50294,7 +50294,7 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -51437,7 +51437,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -54856,7 +54856,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -54936,7 +54936,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -55016,7 +55016,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
